--- a/springboot/src/main/resources/flow/2023-04-16_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-16_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="8710"/>
+    <workbookView windowWidth="9252" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,6 +668,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,15 +1000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G7" sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9.41666666666667"/>
+    <col min="2" max="2" width="10.6"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1057,11 +1063,11 @@
       <c r="D3" s="3">
         <v>0.375</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.1</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F27" si="0">MAX(ROUND(E3/3.8,0),1)</f>
+        <f>MAX(ROUND(E5/3.8,0),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1078,15 +1084,15 @@
       <c r="D4" s="3">
         <v>0.395833333333333</v>
       </c>
-      <c r="E4" s="1">
-        <v>1.3</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f t="shared" ref="F3:F27" si="0">MAX(ROUND(E6/3.8,0),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="E5" s="1">
-        <v>5.7</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
@@ -1121,7 +1127,7 @@
         <v>0.4375</v>
       </c>
       <c r="E6" s="1">
-        <v>11.1</v>
+        <v>1.3</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
@@ -1142,7 +1148,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="E7" s="1">
-        <v>13.4</v>
+        <v>5.7</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
@@ -1163,7 +1169,7 @@
         <v>0.479166666666667</v>
       </c>
       <c r="E8" s="1">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
@@ -1184,7 +1190,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="1">
-        <v>17.3</v>
+        <v>13.4</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
@@ -1205,7 +1211,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="E10" s="1">
-        <v>18.1</v>
+        <v>13.3</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
@@ -1226,7 +1232,7 @@
         <v>0.541666666666667</v>
       </c>
       <c r="E11" s="1">
-        <v>22.8</v>
+        <v>17.3</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
@@ -1247,7 +1253,7 @@
         <v>0.5625</v>
       </c>
       <c r="E12" s="1">
-        <v>26.9</v>
+        <v>18.1</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
@@ -1268,7 +1274,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="E13" s="1">
-        <v>21.6</v>
+        <v>22.8</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
@@ -1289,7 +1295,7 @@
         <v>0.604166666666667</v>
       </c>
       <c r="E14" s="1">
-        <v>18.3</v>
+        <v>26.9</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
@@ -1310,7 +1316,7 @@
         <v>0.625</v>
       </c>
       <c r="E15" s="1">
-        <v>17.2</v>
+        <v>21.6</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
@@ -1331,7 +1337,7 @@
         <v>0.645833333333333</v>
       </c>
       <c r="E16" s="1">
-        <v>15.3</v>
+        <v>18.3</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
@@ -1352,7 +1358,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="E17" s="1">
-        <v>14.3</v>
+        <v>17.2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
@@ -1373,7 +1379,7 @@
         <v>0.6875</v>
       </c>
       <c r="E18" s="1">
-        <v>11.6</v>
+        <v>15.3</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
@@ -1394,7 +1400,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="E19" s="1">
-        <v>8.3</v>
+        <v>14.3</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
@@ -1415,7 +1421,7 @@
         <v>0.729166666666667</v>
       </c>
       <c r="E20" s="1">
-        <v>8.3</v>
+        <v>11.6</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
@@ -1436,7 +1442,7 @@
         <v>0.75</v>
       </c>
       <c r="E21" s="1">
-        <v>7.2</v>
+        <v>8.3</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
@@ -1457,7 +1463,7 @@
         <v>0.770833333333333</v>
       </c>
       <c r="E22" s="1">
-        <v>5.6</v>
+        <v>8.3</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
@@ -1478,7 +1484,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E23" s="1">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
@@ -1499,7 +1505,7 @@
         <v>0.8125</v>
       </c>
       <c r="E24" s="1">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
@@ -1520,7 +1526,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="E25" s="1">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
@@ -1541,7 +1547,7 @@
         <v>0.854166666666667</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
@@ -1562,12 +1568,56 @@
         <v>0.875</v>
       </c>
       <c r="E27" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45012</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.1</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45012</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1585,7 +1635,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1602,7 +1652,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/springboot/src/main/resources/flow/2023-04-16_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-16_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9252" windowHeight="10680"/>
+    <workbookView windowWidth="18520" windowHeight="8710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,9 +668,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1000,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.6"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -1088,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F3:F27" si="0">MAX(ROUND(E6/3.8,0),1)</f>
+        <f t="shared" ref="F3:F29" si="0">MAX(ROUND(E6/3.8,0),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1550,7 +1547,6 @@
         <v>2.5</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1571,53 +1567,12 @@
         <v>2.1</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4">
-        <v>45012</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.875</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.895833333333333</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4">
-        <v>45012</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.895833333333333</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1635,7 +1590,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1652,7 +1607,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/springboot/src/main/resources/flow/2023-04-16_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-16_1.xlsx
@@ -657,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,9 +668,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A28" sqref="A28:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1569,10 +1566,6 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/springboot/src/main/resources/flow/2023-04-16_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-16_1.xlsx
@@ -1000,15 +1000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G29"/>
+      <selection activeCell="A1" sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="10.6"/>
+    <col min="2" max="2" width="9.41666666666667"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>MAX(ROUND(E5/3.8,0),1)</f>
+        <f t="shared" ref="F3:F27" si="0">MAX(ROUND(E5/3.8,0),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1088,11 +1088,11 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F3:F27" si="0">MAX(ROUND(E6/3.8,0),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1614,10 +1614,6 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/springboot/src/main/resources/flow/2023-04-16_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-16_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9252" windowHeight="10680"/>
+    <workbookView windowWidth="18468" windowHeight="11448"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1000,15 +1000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G29"/>
+      <selection activeCell="A1" sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="10.6"/>
+    <col min="2" max="2" width="9.41666666666667"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>MAX(ROUND(E5/3.8,0),1)</f>
+        <f t="shared" ref="F3:F27" si="0">MAX(ROUND(E5/3.8,0),1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1088,11 +1088,11 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F3:F27" si="0">MAX(ROUND(E6/3.8,0),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1614,10 +1614,6 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/springboot/src/main/resources/flow/2023-04-16_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-16_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9252" windowHeight="10680"/>
+    <workbookView windowWidth="18468" windowHeight="11448"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
